--- a/2023-05/202305/01_基本設計書/01_基本設計書/チーム2/基本設計書_入出庫一覧画面(濱).xlsx
+++ b/2023-05/202305/01_基本設計書/01_基本設計書/チーム2/基本設計書_入出庫一覧画面(濱).xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e3c30a1f16d8e11f/ドキュメント/GitHub/2023-05/2023-05/202305/01_基本設計書/01_基本設計書/チーム2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3459461B-AF16-409D-8267-65B018D23838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3459461B-AF16-409D-8267-65B018D23838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D00FD3E-D305-4001-93A5-F5A7E306922E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10740" tabRatio="900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="116">
   <si>
     <t>基本設計書</t>
   </si>
@@ -427,10 +427,6 @@
     <rPh sb="8" eb="9">
       <t>ｹﾀ</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>・在庫名称カナ、最大20桁、入力不可、グレー文字</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1741,6 +1737,24 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1774,24 +1788,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1801,6 +1797,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1808,72 +1807,156 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="182" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1902,93 +1985,6 @@
     </xf>
     <xf numFmtId="182" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4498,72 +4494,72 @@
     </row>
     <row r="4" spans="1:176" ht="12.75" customHeight="1">
       <c r="A4" s="26"/>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="116"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="122"/>
+      <c r="W4" s="122"/>
+      <c r="X4" s="122"/>
+      <c r="Y4" s="122"/>
+      <c r="Z4" s="122"/>
+      <c r="AA4" s="122"/>
+      <c r="AB4" s="122"/>
+      <c r="AC4" s="122"/>
+      <c r="AD4" s="122"/>
+      <c r="AE4" s="122"/>
       <c r="AF4" s="36"/>
     </row>
     <row r="5" spans="1:176" ht="12.75" customHeight="1">
       <c r="A5" s="26"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="116"/>
-      <c r="Z5" s="116"/>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="116"/>
-      <c r="AC5" s="116"/>
-      <c r="AD5" s="116"/>
-      <c r="AE5" s="116"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="122"/>
+      <c r="U5" s="122"/>
+      <c r="V5" s="122"/>
+      <c r="W5" s="122"/>
+      <c r="X5" s="122"/>
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="122"/>
+      <c r="AA5" s="122"/>
+      <c r="AB5" s="122"/>
+      <c r="AC5" s="122"/>
+      <c r="AD5" s="122"/>
+      <c r="AE5" s="122"/>
       <c r="AF5" s="36"/>
     </row>
     <row r="6" spans="1:176" ht="12.75" customHeight="1">
@@ -4779,78 +4775,78 @@
     </row>
     <row r="12" spans="1:176" ht="12">
       <c r="A12" s="26"/>
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="123" t="s">
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="118"/>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="118"/>
-      <c r="X12" s="118"/>
-      <c r="Y12" s="118"/>
-      <c r="Z12" s="118"/>
-      <c r="AA12" s="119"/>
-      <c r="AB12" s="123" t="s">
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="124"/>
+      <c r="Q12" s="124"/>
+      <c r="R12" s="124"/>
+      <c r="S12" s="124"/>
+      <c r="T12" s="124"/>
+      <c r="U12" s="124"/>
+      <c r="V12" s="124"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="124"/>
+      <c r="Y12" s="124"/>
+      <c r="Z12" s="124"/>
+      <c r="AA12" s="125"/>
+      <c r="AB12" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="AC12" s="124"/>
-      <c r="AD12" s="117" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE12" s="119"/>
+      <c r="AC12" s="130"/>
+      <c r="AD12" s="123" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE12" s="125"/>
       <c r="AF12" s="47"/>
     </row>
     <row r="13" spans="1:176" ht="12">
       <c r="A13" s="26"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="121"/>
-      <c r="Q13" s="121"/>
-      <c r="R13" s="121"/>
-      <c r="S13" s="121"/>
-      <c r="T13" s="121"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="121"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="121"/>
-      <c r="Y13" s="121"/>
-      <c r="Z13" s="121"/>
-      <c r="AA13" s="122"/>
-      <c r="AB13" s="125"/>
-      <c r="AC13" s="126"/>
-      <c r="AD13" s="120"/>
-      <c r="AE13" s="122"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="127"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="127"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="127"/>
+      <c r="T13" s="127"/>
+      <c r="U13" s="127"/>
+      <c r="V13" s="127"/>
+      <c r="W13" s="127"/>
+      <c r="X13" s="127"/>
+      <c r="Y13" s="127"/>
+      <c r="Z13" s="127"/>
+      <c r="AA13" s="128"/>
+      <c r="AB13" s="131"/>
+      <c r="AC13" s="132"/>
+      <c r="AD13" s="126"/>
+      <c r="AE13" s="128"/>
       <c r="AF13" s="47"/>
     </row>
     <row r="14" spans="1:176" ht="12.75" customHeight="1">
@@ -5151,630 +5147,630 @@
     </row>
     <row r="23" spans="1:32" ht="12.75" customHeight="1">
       <c r="A23" s="26"/>
-      <c r="B23" s="127" t="s">
+      <c r="B23" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="127" t="s">
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="127" t="s">
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="K23" s="128"/>
-      <c r="L23" s="128"/>
-      <c r="M23" s="128"/>
-      <c r="N23" s="128"/>
-      <c r="O23" s="128"/>
-      <c r="P23" s="128"/>
-      <c r="Q23" s="128"/>
-      <c r="R23" s="128"/>
-      <c r="S23" s="128"/>
-      <c r="T23" s="128"/>
-      <c r="U23" s="128"/>
-      <c r="V23" s="128"/>
-      <c r="W23" s="128"/>
-      <c r="X23" s="128"/>
-      <c r="Y23" s="128"/>
-      <c r="Z23" s="128"/>
-      <c r="AA23" s="128"/>
-      <c r="AB23" s="129"/>
-      <c r="AC23" s="127" t="s">
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="117"/>
+      <c r="R23" s="117"/>
+      <c r="S23" s="117"/>
+      <c r="T23" s="117"/>
+      <c r="U23" s="117"/>
+      <c r="V23" s="117"/>
+      <c r="W23" s="117"/>
+      <c r="X23" s="117"/>
+      <c r="Y23" s="117"/>
+      <c r="Z23" s="117"/>
+      <c r="AA23" s="117"/>
+      <c r="AB23" s="118"/>
+      <c r="AC23" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="AD23" s="128"/>
-      <c r="AE23" s="129"/>
+      <c r="AD23" s="117"/>
+      <c r="AE23" s="118"/>
       <c r="AF23" s="36"/>
     </row>
     <row r="24" spans="1:32" ht="12.75" customHeight="1">
       <c r="A24" s="26"/>
-      <c r="B24" s="127" t="s">
+      <c r="B24" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="130">
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="119">
         <v>45047</v>
       </c>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="127" t="s">
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="128"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="128"/>
-      <c r="N24" s="128"/>
-      <c r="O24" s="128"/>
-      <c r="P24" s="128"/>
-      <c r="Q24" s="128"/>
-      <c r="R24" s="128"/>
-      <c r="S24" s="128"/>
-      <c r="T24" s="128"/>
-      <c r="U24" s="128"/>
-      <c r="V24" s="128"/>
-      <c r="W24" s="128"/>
-      <c r="X24" s="128"/>
-      <c r="Y24" s="128"/>
-      <c r="Z24" s="128"/>
-      <c r="AA24" s="128"/>
-      <c r="AB24" s="129"/>
-      <c r="AC24" s="127" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD24" s="128"/>
-      <c r="AE24" s="129"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="117"/>
+      <c r="R24" s="117"/>
+      <c r="S24" s="117"/>
+      <c r="T24" s="117"/>
+      <c r="U24" s="117"/>
+      <c r="V24" s="117"/>
+      <c r="W24" s="117"/>
+      <c r="X24" s="117"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="117"/>
+      <c r="AA24" s="117"/>
+      <c r="AB24" s="118"/>
+      <c r="AC24" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD24" s="117"/>
+      <c r="AE24" s="118"/>
       <c r="AF24" s="36"/>
     </row>
     <row r="25" spans="1:32" ht="12.75" customHeight="1">
       <c r="A25" s="26"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="127"/>
-      <c r="K25" s="128"/>
-      <c r="L25" s="128"/>
-      <c r="M25" s="128"/>
-      <c r="N25" s="128"/>
-      <c r="O25" s="128"/>
-      <c r="P25" s="128"/>
-      <c r="Q25" s="128"/>
-      <c r="R25" s="128"/>
-      <c r="S25" s="128"/>
-      <c r="T25" s="128"/>
-      <c r="U25" s="128"/>
-      <c r="V25" s="128"/>
-      <c r="W25" s="128"/>
-      <c r="X25" s="128"/>
-      <c r="Y25" s="128"/>
-      <c r="Z25" s="128"/>
-      <c r="AA25" s="128"/>
-      <c r="AB25" s="129"/>
-      <c r="AC25" s="127"/>
-      <c r="AD25" s="128"/>
-      <c r="AE25" s="129"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="117"/>
+      <c r="R25" s="117"/>
+      <c r="S25" s="117"/>
+      <c r="T25" s="117"/>
+      <c r="U25" s="117"/>
+      <c r="V25" s="117"/>
+      <c r="W25" s="117"/>
+      <c r="X25" s="117"/>
+      <c r="Y25" s="117"/>
+      <c r="Z25" s="117"/>
+      <c r="AA25" s="117"/>
+      <c r="AB25" s="118"/>
+      <c r="AC25" s="116"/>
+      <c r="AD25" s="117"/>
+      <c r="AE25" s="118"/>
       <c r="AF25" s="36"/>
     </row>
     <row r="26" spans="1:32" ht="12.75" customHeight="1">
       <c r="A26" s="26"/>
-      <c r="B26" s="127"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="128"/>
-      <c r="M26" s="128"/>
-      <c r="N26" s="128"/>
-      <c r="O26" s="128"/>
-      <c r="P26" s="128"/>
-      <c r="Q26" s="128"/>
-      <c r="R26" s="128"/>
-      <c r="S26" s="128"/>
-      <c r="T26" s="128"/>
-      <c r="U26" s="128"/>
-      <c r="V26" s="128"/>
-      <c r="W26" s="128"/>
-      <c r="X26" s="128"/>
-      <c r="Y26" s="128"/>
-      <c r="Z26" s="128"/>
-      <c r="AA26" s="128"/>
-      <c r="AB26" s="129"/>
-      <c r="AC26" s="127"/>
-      <c r="AD26" s="128"/>
-      <c r="AE26" s="129"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="116"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="117"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="117"/>
+      <c r="R26" s="117"/>
+      <c r="S26" s="117"/>
+      <c r="T26" s="117"/>
+      <c r="U26" s="117"/>
+      <c r="V26" s="117"/>
+      <c r="W26" s="117"/>
+      <c r="X26" s="117"/>
+      <c r="Y26" s="117"/>
+      <c r="Z26" s="117"/>
+      <c r="AA26" s="117"/>
+      <c r="AB26" s="118"/>
+      <c r="AC26" s="116"/>
+      <c r="AD26" s="117"/>
+      <c r="AE26" s="118"/>
       <c r="AF26" s="36"/>
     </row>
     <row r="27" spans="1:32" ht="12.75" customHeight="1">
       <c r="A27" s="26"/>
-      <c r="B27" s="127"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="127"/>
-      <c r="K27" s="128"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="128"/>
-      <c r="O27" s="128"/>
-      <c r="P27" s="128"/>
-      <c r="Q27" s="128"/>
-      <c r="R27" s="128"/>
-      <c r="S27" s="128"/>
-      <c r="T27" s="128"/>
-      <c r="U27" s="128"/>
-      <c r="V27" s="128"/>
-      <c r="W27" s="128"/>
-      <c r="X27" s="128"/>
-      <c r="Y27" s="128"/>
-      <c r="Z27" s="128"/>
-      <c r="AA27" s="128"/>
-      <c r="AB27" s="129"/>
-      <c r="AC27" s="127"/>
-      <c r="AD27" s="128"/>
-      <c r="AE27" s="129"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="117"/>
+      <c r="O27" s="117"/>
+      <c r="P27" s="117"/>
+      <c r="Q27" s="117"/>
+      <c r="R27" s="117"/>
+      <c r="S27" s="117"/>
+      <c r="T27" s="117"/>
+      <c r="U27" s="117"/>
+      <c r="V27" s="117"/>
+      <c r="W27" s="117"/>
+      <c r="X27" s="117"/>
+      <c r="Y27" s="117"/>
+      <c r="Z27" s="117"/>
+      <c r="AA27" s="117"/>
+      <c r="AB27" s="118"/>
+      <c r="AC27" s="116"/>
+      <c r="AD27" s="117"/>
+      <c r="AE27" s="118"/>
       <c r="AF27" s="36"/>
     </row>
     <row r="28" spans="1:32" ht="12.75" customHeight="1">
       <c r="A28" s="26"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="128"/>
-      <c r="Q28" s="128"/>
-      <c r="R28" s="128"/>
-      <c r="S28" s="128"/>
-      <c r="T28" s="128"/>
-      <c r="U28" s="128"/>
-      <c r="V28" s="128"/>
-      <c r="W28" s="128"/>
-      <c r="X28" s="128"/>
-      <c r="Y28" s="128"/>
-      <c r="Z28" s="128"/>
-      <c r="AA28" s="128"/>
-      <c r="AB28" s="129"/>
-      <c r="AC28" s="127"/>
-      <c r="AD28" s="128"/>
-      <c r="AE28" s="129"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="117"/>
+      <c r="O28" s="117"/>
+      <c r="P28" s="117"/>
+      <c r="Q28" s="117"/>
+      <c r="R28" s="117"/>
+      <c r="S28" s="117"/>
+      <c r="T28" s="117"/>
+      <c r="U28" s="117"/>
+      <c r="V28" s="117"/>
+      <c r="W28" s="117"/>
+      <c r="X28" s="117"/>
+      <c r="Y28" s="117"/>
+      <c r="Z28" s="117"/>
+      <c r="AA28" s="117"/>
+      <c r="AB28" s="118"/>
+      <c r="AC28" s="116"/>
+      <c r="AD28" s="117"/>
+      <c r="AE28" s="118"/>
       <c r="AF28" s="36"/>
     </row>
     <row r="29" spans="1:32" ht="12.75" customHeight="1">
       <c r="A29" s="26"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="128"/>
-      <c r="L29" s="128"/>
-      <c r="M29" s="128"/>
-      <c r="N29" s="128"/>
-      <c r="O29" s="128"/>
-      <c r="P29" s="128"/>
-      <c r="Q29" s="128"/>
-      <c r="R29" s="128"/>
-      <c r="S29" s="128"/>
-      <c r="T29" s="128"/>
-      <c r="U29" s="128"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="128"/>
-      <c r="X29" s="128"/>
-      <c r="Y29" s="128"/>
-      <c r="Z29" s="128"/>
-      <c r="AA29" s="128"/>
-      <c r="AB29" s="129"/>
-      <c r="AC29" s="127"/>
-      <c r="AD29" s="128"/>
-      <c r="AE29" s="129"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="117"/>
+      <c r="M29" s="117"/>
+      <c r="N29" s="117"/>
+      <c r="O29" s="117"/>
+      <c r="P29" s="117"/>
+      <c r="Q29" s="117"/>
+      <c r="R29" s="117"/>
+      <c r="S29" s="117"/>
+      <c r="T29" s="117"/>
+      <c r="U29" s="117"/>
+      <c r="V29" s="117"/>
+      <c r="W29" s="117"/>
+      <c r="X29" s="117"/>
+      <c r="Y29" s="117"/>
+      <c r="Z29" s="117"/>
+      <c r="AA29" s="117"/>
+      <c r="AB29" s="118"/>
+      <c r="AC29" s="116"/>
+      <c r="AD29" s="117"/>
+      <c r="AE29" s="118"/>
       <c r="AF29" s="36"/>
     </row>
     <row r="30" spans="1:32" ht="12.75" customHeight="1">
       <c r="A30" s="26"/>
-      <c r="B30" s="127"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="127"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="128"/>
-      <c r="M30" s="128"/>
-      <c r="N30" s="128"/>
-      <c r="O30" s="128"/>
-      <c r="P30" s="128"/>
-      <c r="Q30" s="128"/>
-      <c r="R30" s="128"/>
-      <c r="S30" s="128"/>
-      <c r="T30" s="128"/>
-      <c r="U30" s="128"/>
-      <c r="V30" s="128"/>
-      <c r="W30" s="128"/>
-      <c r="X30" s="128"/>
-      <c r="Y30" s="128"/>
-      <c r="Z30" s="128"/>
-      <c r="AA30" s="128"/>
-      <c r="AB30" s="129"/>
-      <c r="AC30" s="127"/>
-      <c r="AD30" s="128"/>
-      <c r="AE30" s="129"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="117"/>
+      <c r="N30" s="117"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="117"/>
+      <c r="Q30" s="117"/>
+      <c r="R30" s="117"/>
+      <c r="S30" s="117"/>
+      <c r="T30" s="117"/>
+      <c r="U30" s="117"/>
+      <c r="V30" s="117"/>
+      <c r="W30" s="117"/>
+      <c r="X30" s="117"/>
+      <c r="Y30" s="117"/>
+      <c r="Z30" s="117"/>
+      <c r="AA30" s="117"/>
+      <c r="AB30" s="118"/>
+      <c r="AC30" s="116"/>
+      <c r="AD30" s="117"/>
+      <c r="AE30" s="118"/>
       <c r="AF30" s="36"/>
     </row>
     <row r="31" spans="1:32" ht="12.75" customHeight="1">
       <c r="A31" s="26"/>
-      <c r="B31" s="127"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="128"/>
-      <c r="M31" s="128"/>
-      <c r="N31" s="128"/>
-      <c r="O31" s="128"/>
-      <c r="P31" s="128"/>
-      <c r="Q31" s="128"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="128"/>
-      <c r="T31" s="128"/>
-      <c r="U31" s="128"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="128"/>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="128"/>
-      <c r="Z31" s="128"/>
-      <c r="AA31" s="128"/>
-      <c r="AB31" s="129"/>
-      <c r="AC31" s="127"/>
-      <c r="AD31" s="128"/>
-      <c r="AE31" s="129"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="117"/>
+      <c r="P31" s="117"/>
+      <c r="Q31" s="117"/>
+      <c r="R31" s="117"/>
+      <c r="S31" s="117"/>
+      <c r="T31" s="117"/>
+      <c r="U31" s="117"/>
+      <c r="V31" s="117"/>
+      <c r="W31" s="117"/>
+      <c r="X31" s="117"/>
+      <c r="Y31" s="117"/>
+      <c r="Z31" s="117"/>
+      <c r="AA31" s="117"/>
+      <c r="AB31" s="118"/>
+      <c r="AC31" s="116"/>
+      <c r="AD31" s="117"/>
+      <c r="AE31" s="118"/>
       <c r="AF31" s="36"/>
     </row>
     <row r="32" spans="1:32" ht="12.75" customHeight="1">
       <c r="A32" s="26"/>
-      <c r="B32" s="127"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="128"/>
-      <c r="L32" s="128"/>
-      <c r="M32" s="128"/>
-      <c r="N32" s="128"/>
-      <c r="O32" s="128"/>
-      <c r="P32" s="128"/>
-      <c r="Q32" s="128"/>
-      <c r="R32" s="128"/>
-      <c r="S32" s="128"/>
-      <c r="T32" s="128"/>
-      <c r="U32" s="128"/>
-      <c r="V32" s="128"/>
-      <c r="W32" s="128"/>
-      <c r="X32" s="128"/>
-      <c r="Y32" s="128"/>
-      <c r="Z32" s="128"/>
-      <c r="AA32" s="128"/>
-      <c r="AB32" s="129"/>
-      <c r="AC32" s="127"/>
-      <c r="AD32" s="128"/>
-      <c r="AE32" s="129"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="117"/>
+      <c r="N32" s="117"/>
+      <c r="O32" s="117"/>
+      <c r="P32" s="117"/>
+      <c r="Q32" s="117"/>
+      <c r="R32" s="117"/>
+      <c r="S32" s="117"/>
+      <c r="T32" s="117"/>
+      <c r="U32" s="117"/>
+      <c r="V32" s="117"/>
+      <c r="W32" s="117"/>
+      <c r="X32" s="117"/>
+      <c r="Y32" s="117"/>
+      <c r="Z32" s="117"/>
+      <c r="AA32" s="117"/>
+      <c r="AB32" s="118"/>
+      <c r="AC32" s="116"/>
+      <c r="AD32" s="117"/>
+      <c r="AE32" s="118"/>
       <c r="AF32" s="36"/>
     </row>
     <row r="33" spans="1:32" ht="12.75" customHeight="1">
       <c r="A33" s="26"/>
-      <c r="B33" s="127"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="131"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="127"/>
-      <c r="K33" s="128"/>
-      <c r="L33" s="128"/>
-      <c r="M33" s="128"/>
-      <c r="N33" s="128"/>
-      <c r="O33" s="128"/>
-      <c r="P33" s="128"/>
-      <c r="Q33" s="128"/>
-      <c r="R33" s="128"/>
-      <c r="S33" s="128"/>
-      <c r="T33" s="128"/>
-      <c r="U33" s="128"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="128"/>
-      <c r="X33" s="128"/>
-      <c r="Y33" s="128"/>
-      <c r="Z33" s="128"/>
-      <c r="AA33" s="128"/>
-      <c r="AB33" s="129"/>
-      <c r="AC33" s="127"/>
-      <c r="AD33" s="128"/>
-      <c r="AE33" s="129"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="117"/>
+      <c r="N33" s="117"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="117"/>
+      <c r="Q33" s="117"/>
+      <c r="R33" s="117"/>
+      <c r="S33" s="117"/>
+      <c r="T33" s="117"/>
+      <c r="U33" s="117"/>
+      <c r="V33" s="117"/>
+      <c r="W33" s="117"/>
+      <c r="X33" s="117"/>
+      <c r="Y33" s="117"/>
+      <c r="Z33" s="117"/>
+      <c r="AA33" s="117"/>
+      <c r="AB33" s="118"/>
+      <c r="AC33" s="116"/>
+      <c r="AD33" s="117"/>
+      <c r="AE33" s="118"/>
       <c r="AF33" s="36"/>
     </row>
     <row r="34" spans="1:32" ht="12.75" customHeight="1">
       <c r="A34" s="26"/>
-      <c r="B34" s="127"/>
-      <c r="C34" s="128"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="130"/>
-      <c r="G34" s="131"/>
-      <c r="H34" s="131"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="127"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="128"/>
-      <c r="M34" s="128"/>
-      <c r="N34" s="128"/>
-      <c r="O34" s="128"/>
-      <c r="P34" s="128"/>
-      <c r="Q34" s="128"/>
-      <c r="R34" s="128"/>
-      <c r="S34" s="128"/>
-      <c r="T34" s="128"/>
-      <c r="U34" s="128"/>
-      <c r="V34" s="128"/>
-      <c r="W34" s="128"/>
-      <c r="X34" s="128"/>
-      <c r="Y34" s="128"/>
-      <c r="Z34" s="128"/>
-      <c r="AA34" s="128"/>
-      <c r="AB34" s="129"/>
-      <c r="AC34" s="127"/>
-      <c r="AD34" s="128"/>
-      <c r="AE34" s="129"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="117"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="117"/>
+      <c r="Q34" s="117"/>
+      <c r="R34" s="117"/>
+      <c r="S34" s="117"/>
+      <c r="T34" s="117"/>
+      <c r="U34" s="117"/>
+      <c r="V34" s="117"/>
+      <c r="W34" s="117"/>
+      <c r="X34" s="117"/>
+      <c r="Y34" s="117"/>
+      <c r="Z34" s="117"/>
+      <c r="AA34" s="117"/>
+      <c r="AB34" s="118"/>
+      <c r="AC34" s="116"/>
+      <c r="AD34" s="117"/>
+      <c r="AE34" s="118"/>
       <c r="AF34" s="36"/>
     </row>
     <row r="35" spans="1:32" ht="12.75" customHeight="1">
       <c r="A35" s="26"/>
-      <c r="B35" s="127"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="127"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="128"/>
-      <c r="M35" s="128"/>
-      <c r="N35" s="128"/>
-      <c r="O35" s="128"/>
-      <c r="P35" s="128"/>
-      <c r="Q35" s="128"/>
-      <c r="R35" s="128"/>
-      <c r="S35" s="128"/>
-      <c r="T35" s="128"/>
-      <c r="U35" s="128"/>
-      <c r="V35" s="128"/>
-      <c r="W35" s="128"/>
-      <c r="X35" s="128"/>
-      <c r="Y35" s="128"/>
-      <c r="Z35" s="128"/>
-      <c r="AA35" s="128"/>
-      <c r="AB35" s="129"/>
-      <c r="AC35" s="127"/>
-      <c r="AD35" s="128"/>
-      <c r="AE35" s="129"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="121"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="117"/>
+      <c r="Q35" s="117"/>
+      <c r="R35" s="117"/>
+      <c r="S35" s="117"/>
+      <c r="T35" s="117"/>
+      <c r="U35" s="117"/>
+      <c r="V35" s="117"/>
+      <c r="W35" s="117"/>
+      <c r="X35" s="117"/>
+      <c r="Y35" s="117"/>
+      <c r="Z35" s="117"/>
+      <c r="AA35" s="117"/>
+      <c r="AB35" s="118"/>
+      <c r="AC35" s="116"/>
+      <c r="AD35" s="117"/>
+      <c r="AE35" s="118"/>
       <c r="AF35" s="36"/>
     </row>
     <row r="36" spans="1:32" ht="12.75" customHeight="1">
       <c r="A36" s="26"/>
-      <c r="B36" s="127"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="131"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="127"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="128"/>
-      <c r="M36" s="128"/>
-      <c r="N36" s="128"/>
-      <c r="O36" s="128"/>
-      <c r="P36" s="128"/>
-      <c r="Q36" s="128"/>
-      <c r="R36" s="128"/>
-      <c r="S36" s="128"/>
-      <c r="T36" s="128"/>
-      <c r="U36" s="128"/>
-      <c r="V36" s="128"/>
-      <c r="W36" s="128"/>
-      <c r="X36" s="128"/>
-      <c r="Y36" s="128"/>
-      <c r="Z36" s="128"/>
-      <c r="AA36" s="128"/>
-      <c r="AB36" s="129"/>
-      <c r="AC36" s="127"/>
-      <c r="AD36" s="128"/>
-      <c r="AE36" s="129"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="117"/>
+      <c r="L36" s="117"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="117"/>
+      <c r="O36" s="117"/>
+      <c r="P36" s="117"/>
+      <c r="Q36" s="117"/>
+      <c r="R36" s="117"/>
+      <c r="S36" s="117"/>
+      <c r="T36" s="117"/>
+      <c r="U36" s="117"/>
+      <c r="V36" s="117"/>
+      <c r="W36" s="117"/>
+      <c r="X36" s="117"/>
+      <c r="Y36" s="117"/>
+      <c r="Z36" s="117"/>
+      <c r="AA36" s="117"/>
+      <c r="AB36" s="118"/>
+      <c r="AC36" s="116"/>
+      <c r="AD36" s="117"/>
+      <c r="AE36" s="118"/>
       <c r="AF36" s="36"/>
     </row>
     <row r="37" spans="1:32" ht="12.75" customHeight="1">
       <c r="A37" s="26"/>
-      <c r="B37" s="127"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="127"/>
-      <c r="K37" s="128"/>
-      <c r="L37" s="128"/>
-      <c r="M37" s="128"/>
-      <c r="N37" s="128"/>
-      <c r="O37" s="128"/>
-      <c r="P37" s="128"/>
-      <c r="Q37" s="128"/>
-      <c r="R37" s="128"/>
-      <c r="S37" s="128"/>
-      <c r="T37" s="128"/>
-      <c r="U37" s="128"/>
-      <c r="V37" s="128"/>
-      <c r="W37" s="128"/>
-      <c r="X37" s="128"/>
-      <c r="Y37" s="128"/>
-      <c r="Z37" s="128"/>
-      <c r="AA37" s="128"/>
-      <c r="AB37" s="129"/>
-      <c r="AC37" s="127"/>
-      <c r="AD37" s="128"/>
-      <c r="AE37" s="129"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="117"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="117"/>
+      <c r="O37" s="117"/>
+      <c r="P37" s="117"/>
+      <c r="Q37" s="117"/>
+      <c r="R37" s="117"/>
+      <c r="S37" s="117"/>
+      <c r="T37" s="117"/>
+      <c r="U37" s="117"/>
+      <c r="V37" s="117"/>
+      <c r="W37" s="117"/>
+      <c r="X37" s="117"/>
+      <c r="Y37" s="117"/>
+      <c r="Z37" s="117"/>
+      <c r="AA37" s="117"/>
+      <c r="AB37" s="118"/>
+      <c r="AC37" s="116"/>
+      <c r="AD37" s="117"/>
+      <c r="AE37" s="118"/>
       <c r="AF37" s="36"/>
     </row>
     <row r="38" spans="1:32" ht="12.75" customHeight="1">
       <c r="A38" s="26"/>
-      <c r="B38" s="127"/>
-      <c r="C38" s="128"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="129"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="131"/>
-      <c r="H38" s="131"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="127"/>
-      <c r="K38" s="128"/>
-      <c r="L38" s="128"/>
-      <c r="M38" s="128"/>
-      <c r="N38" s="128"/>
-      <c r="O38" s="128"/>
-      <c r="P38" s="128"/>
-      <c r="Q38" s="128"/>
-      <c r="R38" s="128"/>
-      <c r="S38" s="128"/>
-      <c r="T38" s="128"/>
-      <c r="U38" s="128"/>
-      <c r="V38" s="128"/>
-      <c r="W38" s="128"/>
-      <c r="X38" s="128"/>
-      <c r="Y38" s="128"/>
-      <c r="Z38" s="128"/>
-      <c r="AA38" s="128"/>
-      <c r="AB38" s="129"/>
-      <c r="AC38" s="127"/>
-      <c r="AD38" s="128"/>
-      <c r="AE38" s="129"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="117"/>
+      <c r="O38" s="117"/>
+      <c r="P38" s="117"/>
+      <c r="Q38" s="117"/>
+      <c r="R38" s="117"/>
+      <c r="S38" s="117"/>
+      <c r="T38" s="117"/>
+      <c r="U38" s="117"/>
+      <c r="V38" s="117"/>
+      <c r="W38" s="117"/>
+      <c r="X38" s="117"/>
+      <c r="Y38" s="117"/>
+      <c r="Z38" s="117"/>
+      <c r="AA38" s="117"/>
+      <c r="AB38" s="118"/>
+      <c r="AC38" s="116"/>
+      <c r="AD38" s="117"/>
+      <c r="AE38" s="118"/>
       <c r="AF38" s="36"/>
     </row>
     <row r="39" spans="1:32" ht="12.75" customHeight="1">
       <c r="A39" s="26"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="128"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="131"/>
-      <c r="H39" s="131"/>
-      <c r="I39" s="132"/>
-      <c r="J39" s="127"/>
-      <c r="K39" s="128"/>
-      <c r="L39" s="128"/>
-      <c r="M39" s="128"/>
-      <c r="N39" s="128"/>
-      <c r="O39" s="128"/>
-      <c r="P39" s="128"/>
-      <c r="Q39" s="128"/>
-      <c r="R39" s="128"/>
-      <c r="S39" s="128"/>
-      <c r="T39" s="128"/>
-      <c r="U39" s="128"/>
-      <c r="V39" s="128"/>
-      <c r="W39" s="128"/>
-      <c r="X39" s="128"/>
-      <c r="Y39" s="128"/>
-      <c r="Z39" s="128"/>
-      <c r="AA39" s="128"/>
-      <c r="AB39" s="129"/>
-      <c r="AC39" s="127"/>
-      <c r="AD39" s="128"/>
-      <c r="AE39" s="129"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="121"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="117"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="117"/>
+      <c r="Q39" s="117"/>
+      <c r="R39" s="117"/>
+      <c r="S39" s="117"/>
+      <c r="T39" s="117"/>
+      <c r="U39" s="117"/>
+      <c r="V39" s="117"/>
+      <c r="W39" s="117"/>
+      <c r="X39" s="117"/>
+      <c r="Y39" s="117"/>
+      <c r="Z39" s="117"/>
+      <c r="AA39" s="117"/>
+      <c r="AB39" s="118"/>
+      <c r="AC39" s="116"/>
+      <c r="AD39" s="117"/>
+      <c r="AE39" s="118"/>
       <c r="AF39" s="36"/>
     </row>
     <row r="40" spans="1:32" ht="12.75" customHeight="1">
       <c r="A40" s="26"/>
-      <c r="B40" s="127"/>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="131"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="127"/>
-      <c r="K40" s="128"/>
-      <c r="L40" s="128"/>
-      <c r="M40" s="128"/>
-      <c r="N40" s="128"/>
-      <c r="O40" s="128"/>
-      <c r="P40" s="128"/>
-      <c r="Q40" s="128"/>
-      <c r="R40" s="128"/>
-      <c r="S40" s="128"/>
-      <c r="T40" s="128"/>
-      <c r="U40" s="128"/>
-      <c r="V40" s="128"/>
-      <c r="W40" s="128"/>
-      <c r="X40" s="128"/>
-      <c r="Y40" s="128"/>
-      <c r="Z40" s="128"/>
-      <c r="AA40" s="128"/>
-      <c r="AB40" s="129"/>
-      <c r="AC40" s="127"/>
-      <c r="AD40" s="128"/>
-      <c r="AE40" s="129"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="116"/>
+      <c r="K40" s="117"/>
+      <c r="L40" s="117"/>
+      <c r="M40" s="117"/>
+      <c r="N40" s="117"/>
+      <c r="O40" s="117"/>
+      <c r="P40" s="117"/>
+      <c r="Q40" s="117"/>
+      <c r="R40" s="117"/>
+      <c r="S40" s="117"/>
+      <c r="T40" s="117"/>
+      <c r="U40" s="117"/>
+      <c r="V40" s="117"/>
+      <c r="W40" s="117"/>
+      <c r="X40" s="117"/>
+      <c r="Y40" s="117"/>
+      <c r="Z40" s="117"/>
+      <c r="AA40" s="117"/>
+      <c r="AB40" s="118"/>
+      <c r="AC40" s="116"/>
+      <c r="AD40" s="117"/>
+      <c r="AE40" s="118"/>
       <c r="AF40" s="36"/>
     </row>
     <row r="41" spans="1:32" ht="12.75" customHeight="1">
@@ -5813,78 +5809,6 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:AB39"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:AB40"/>
-    <mergeCell ref="AC40:AE40"/>
     <mergeCell ref="B4:AE5"/>
     <mergeCell ref="G12:L13"/>
     <mergeCell ref="AB12:AC13"/>
@@ -5896,6 +5820,78 @@
     <mergeCell ref="M11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
     <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:AB40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5926,41 +5922,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
-      <c r="W1" s="138"/>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="138"/>
-      <c r="AA1" s="138"/>
-      <c r="AB1" s="138"/>
-      <c r="AC1" s="138"/>
-      <c r="AD1" s="138"/>
-      <c r="AE1" s="138"/>
-      <c r="AF1" s="138"/>
-      <c r="AG1" s="138"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="136"/>
+      <c r="AE1" s="136"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="136"/>
     </row>
     <row r="2" spans="1:177" ht="12">
       <c r="A2" s="133" t="s">
@@ -6008,90 +6004,90 @@
       <c r="AG2" s="135"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="117" t="str">
+      <c r="A3" s="123" t="str">
         <f>表紙!B12</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="117">
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="123">
         <f>表紙!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="123" t="str">
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="129" t="str">
         <f>表紙!M12</f>
         <v>ログイン（画面）／在庫情報一覧（画面）／在庫登録（画面）／
 入出庫情報一覧（画面）／入出庫登録（画面）</v>
       </c>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="117" t="str">
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="137"/>
+      <c r="T3" s="137"/>
+      <c r="U3" s="137"/>
+      <c r="V3" s="137"/>
+      <c r="W3" s="137"/>
+      <c r="X3" s="137"/>
+      <c r="Y3" s="137"/>
+      <c r="Z3" s="137"/>
+      <c r="AA3" s="137"/>
+      <c r="AB3" s="137"/>
+      <c r="AC3" s="130"/>
+      <c r="AD3" s="123" t="str">
         <f>表紙!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="119"/>
-      <c r="AF3" s="117" t="str">
+      <c r="AE3" s="125"/>
+      <c r="AF3" s="123" t="str">
         <f>表紙!AD12</f>
         <v>濱</v>
       </c>
-      <c r="AG3" s="119"/>
+      <c r="AG3" s="125"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="120"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="137"/>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="137"/>
-      <c r="S4" s="137"/>
-      <c r="T4" s="137"/>
-      <c r="U4" s="137"/>
-      <c r="V4" s="137"/>
-      <c r="W4" s="137"/>
-      <c r="X4" s="137"/>
-      <c r="Y4" s="137"/>
-      <c r="Z4" s="137"/>
-      <c r="AA4" s="137"/>
-      <c r="AB4" s="137"/>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="120"/>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="120"/>
-      <c r="AG4" s="122"/>
+      <c r="A4" s="126"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="138"/>
+      <c r="P4" s="138"/>
+      <c r="Q4" s="138"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="138"/>
+      <c r="T4" s="138"/>
+      <c r="U4" s="138"/>
+      <c r="V4" s="138"/>
+      <c r="W4" s="138"/>
+      <c r="X4" s="138"/>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="138"/>
+      <c r="AA4" s="138"/>
+      <c r="AB4" s="138"/>
+      <c r="AC4" s="132"/>
+      <c r="AD4" s="126"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="126"/>
+      <c r="AG4" s="128"/>
     </row>
     <row r="5" spans="1:177" s="18" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="21"/>
@@ -7531,16 +7527,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:AC2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7555,11 +7551,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:FU46"/>
+  <dimension ref="A1:FU45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF3" sqref="AF3:AG4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL22" sqref="AL22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
@@ -7572,172 +7568,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
-      <c r="T1" s="157"/>
-      <c r="U1" s="157"/>
-      <c r="V1" s="157"/>
-      <c r="W1" s="157"/>
-      <c r="X1" s="157"/>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="157"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="157"/>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="157"/>
-      <c r="AG1" s="157"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="139"/>
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="139"/>
+      <c r="AD1" s="139"/>
+      <c r="AE1" s="139"/>
+      <c r="AF1" s="139"/>
+      <c r="AG1" s="139"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="158" t="s">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="158" t="s">
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
-      <c r="U2" s="159"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="159"/>
-      <c r="X2" s="159"/>
-      <c r="Y2" s="159"/>
-      <c r="Z2" s="159"/>
-      <c r="AA2" s="159"/>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="160"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="141"/>
+      <c r="AA2" s="141"/>
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="142"/>
       <c r="AD2" s="51" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="52"/>
-      <c r="AF2" s="158" t="s">
+      <c r="AF2" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="160"/>
+      <c r="AG2" s="142"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="144" t="str">
+      <c r="A3" s="143" t="str">
         <f>表紙!B12</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="144">
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="143">
         <f>表紙!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="150" t="str">
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="149" t="str">
         <f>表紙!M12</f>
         <v>ログイン（画面）／在庫情報一覧（画面）／在庫登録（画面）／
 入出庫情報一覧（画面）／入出庫登録（画面）</v>
       </c>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="151"/>
-      <c r="AA3" s="151"/>
-      <c r="AB3" s="151"/>
-      <c r="AC3" s="152"/>
-      <c r="AD3" s="144" t="str">
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="151"/>
+      <c r="AD3" s="143" t="str">
         <f>表紙!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="144" t="str">
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="143" t="str">
         <f>表紙!AD12</f>
         <v>濱</v>
       </c>
-      <c r="AG3" s="146"/>
+      <c r="AG3" s="145"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="147"/>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="154"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="154"/>
-      <c r="R4" s="154"/>
-      <c r="S4" s="154"/>
-      <c r="T4" s="154"/>
-      <c r="U4" s="154"/>
-      <c r="V4" s="154"/>
-      <c r="W4" s="154"/>
-      <c r="X4" s="154"/>
-      <c r="Y4" s="154"/>
-      <c r="Z4" s="154"/>
-      <c r="AA4" s="154"/>
-      <c r="AB4" s="154"/>
-      <c r="AC4" s="155"/>
-      <c r="AD4" s="147"/>
-      <c r="AE4" s="149"/>
-      <c r="AF4" s="147"/>
-      <c r="AG4" s="149"/>
+      <c r="A4" s="146"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="152"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
+      <c r="Q4" s="153"/>
+      <c r="R4" s="153"/>
+      <c r="S4" s="153"/>
+      <c r="T4" s="153"/>
+      <c r="U4" s="153"/>
+      <c r="V4" s="153"/>
+      <c r="W4" s="153"/>
+      <c r="X4" s="153"/>
+      <c r="Y4" s="153"/>
+      <c r="Z4" s="153"/>
+      <c r="AA4" s="153"/>
+      <c r="AB4" s="153"/>
+      <c r="AC4" s="154"/>
+      <c r="AD4" s="146"/>
+      <c r="AE4" s="148"/>
+      <c r="AF4" s="146"/>
+      <c r="AG4" s="148"/>
     </row>
     <row r="5" spans="1:177" s="60" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="53"/>
@@ -8103,7 +8099,7 @@
       <c r="C7" s="106"/>
       <c r="D7" s="115"/>
       <c r="E7" s="114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="113"/>
       <c r="G7" s="113"/>
@@ -8466,7 +8462,7 @@
       <c r="D9" s="58"/>
       <c r="E9" s="58"/>
       <c r="F9" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G9" s="84"/>
       <c r="H9" s="84"/>
@@ -8498,7 +8494,7 @@
       <c r="AF9" s="58"/>
       <c r="AG9" s="67"/>
       <c r="AT9" s="89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:177" ht="12.75" customHeight="1">
@@ -8537,7 +8533,7 @@
         <v>80</v>
       </c>
       <c r="AT10" s="50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:177" ht="12.75" customHeight="1" thickBot="1">
@@ -8570,10 +8566,10 @@
       <c r="AF11" s="63"/>
       <c r="AG11" s="67"/>
       <c r="AI11" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AT11" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
@@ -8599,22 +8595,22 @@
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
       <c r="V12" s="63"/>
-      <c r="W12" s="173" t="s">
+      <c r="W12" s="160" t="s">
         <v>61</v>
       </c>
-      <c r="X12" s="174"/>
+      <c r="X12" s="161"/>
       <c r="Z12" s="63"/>
-      <c r="AA12" s="173" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB12" s="174"/>
+      <c r="AA12" s="160" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB12" s="161"/>
       <c r="AC12" s="63"/>
       <c r="AD12" s="63"/>
       <c r="AE12" s="63"/>
       <c r="AF12" s="63"/>
       <c r="AG12" s="67"/>
       <c r="AI12" s="50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:177" ht="12.75" customHeight="1" thickBot="1">
@@ -8642,20 +8638,20 @@
         <v>65</v>
       </c>
       <c r="P13" s="63"/>
-      <c r="Q13" s="197" t="s">
-        <v>95</v>
-      </c>
-      <c r="R13" s="198"/>
+      <c r="Q13" s="158" t="s">
+        <v>94</v>
+      </c>
+      <c r="R13" s="159"/>
       <c r="S13" s="63"/>
       <c r="T13" s="88"/>
       <c r="U13" s="63"/>
       <c r="V13" s="63"/>
-      <c r="W13" s="175"/>
-      <c r="X13" s="176"/>
+      <c r="W13" s="162"/>
+      <c r="X13" s="163"/>
       <c r="Y13" s="63"/>
       <c r="Z13" s="63"/>
-      <c r="AA13" s="175"/>
-      <c r="AB13" s="176"/>
+      <c r="AA13" s="162"/>
+      <c r="AB13" s="163"/>
       <c r="AC13" s="63"/>
       <c r="AD13" s="63"/>
       <c r="AE13" s="63"/>
@@ -8738,75 +8734,75 @@
       <c r="A16" s="62"/>
       <c r="B16" s="83"/>
       <c r="C16" s="68"/>
-      <c r="D16" s="193" t="s">
+      <c r="D16" s="178" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194" t="s">
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="185" t="s">
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="185"/>
-      <c r="L16" s="185"/>
-      <c r="M16" s="185"/>
-      <c r="N16" s="186"/>
-      <c r="O16" s="187" t="s">
+      <c r="K16" s="156"/>
+      <c r="L16" s="156"/>
+      <c r="M16" s="156"/>
+      <c r="N16" s="171"/>
+      <c r="O16" s="172" t="s">
         <v>73</v>
       </c>
-      <c r="P16" s="188"/>
-      <c r="Q16" s="189"/>
-      <c r="R16" s="195" t="s">
+      <c r="P16" s="173"/>
+      <c r="Q16" s="174"/>
+      <c r="R16" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="S16" s="185"/>
-      <c r="T16" s="185"/>
-      <c r="U16" s="185"/>
-      <c r="V16" s="185"/>
-      <c r="W16" s="185"/>
-      <c r="X16" s="185"/>
-      <c r="Y16" s="185"/>
-      <c r="Z16" s="185"/>
-      <c r="AA16" s="196"/>
+      <c r="S16" s="156"/>
+      <c r="T16" s="156"/>
+      <c r="U16" s="156"/>
+      <c r="V16" s="156"/>
+      <c r="W16" s="156"/>
+      <c r="X16" s="156"/>
+      <c r="Y16" s="156"/>
+      <c r="Z16" s="156"/>
+      <c r="AA16" s="157"/>
       <c r="AB16" s="96"/>
       <c r="AC16" s="92"/>
       <c r="AD16" s="69"/>
       <c r="AE16" s="63"/>
       <c r="AG16" s="76"/>
       <c r="AI16" s="50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="12.75" customHeight="1">
       <c r="A17" s="62"/>
       <c r="B17" s="83"/>
       <c r="C17" s="68"/>
-      <c r="D17" s="179" t="s">
+      <c r="D17" s="165" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="180"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="182">
+      <c r="E17" s="166"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="168">
         <v>666</v>
       </c>
-      <c r="H17" s="183"/>
-      <c r="I17" s="184"/>
-      <c r="J17" s="180" t="s">
+      <c r="H17" s="169"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="181"/>
-      <c r="O17" s="190" t="s">
+      <c r="K17" s="166"/>
+      <c r="L17" s="166"/>
+      <c r="M17" s="166"/>
+      <c r="N17" s="167"/>
+      <c r="O17" s="175" t="s">
         <v>74</v>
       </c>
-      <c r="P17" s="191"/>
-      <c r="Q17" s="192"/>
+      <c r="P17" s="176"/>
+      <c r="Q17" s="177"/>
       <c r="R17" s="91" t="s">
         <v>64</v>
       </c>
@@ -8825,35 +8821,35 @@
       <c r="AE17" s="68"/>
       <c r="AG17" s="76"/>
       <c r="AI17" s="50" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="16.5" customHeight="1">
       <c r="A18" s="62"/>
       <c r="B18" s="63"/>
       <c r="C18" s="63"/>
-      <c r="D18" s="170" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="156"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="142">
+      <c r="D18" s="179" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="180"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="182">
         <v>123</v>
       </c>
-      <c r="H18" s="171"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="177" t="s">
-        <v>103</v>
-      </c>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="172" t="s">
-        <v>111</v>
-      </c>
-      <c r="P18" s="140"/>
-      <c r="Q18" s="141"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="185" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="180"/>
+      <c r="L18" s="180"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="186" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="187"/>
+      <c r="Q18" s="188"/>
       <c r="R18" s="77" t="s">
         <v>64</v>
       </c>
@@ -8871,35 +8867,35 @@
       <c r="AE18" s="68"/>
       <c r="AG18" s="76"/>
       <c r="AI18" s="50" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="12.75" customHeight="1">
       <c r="A19" s="62"/>
       <c r="B19" s="63"/>
       <c r="C19" s="63"/>
-      <c r="D19" s="170" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="156"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="142">
+      <c r="D19" s="179" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="180"/>
+      <c r="F19" s="181"/>
+      <c r="G19" s="182">
         <v>456</v>
       </c>
-      <c r="H19" s="171"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="178" t="s">
+      <c r="H19" s="183"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="189" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="180"/>
+      <c r="L19" s="180"/>
+      <c r="M19" s="180"/>
+      <c r="N19" s="181"/>
+      <c r="O19" s="186" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="156"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="139"/>
-      <c r="O19" s="172" t="s">
-        <v>110</v>
-      </c>
-      <c r="P19" s="140"/>
-      <c r="Q19" s="141"/>
+      <c r="P19" s="187"/>
+      <c r="Q19" s="188"/>
       <c r="R19" s="77" t="s">
         <v>64</v>
       </c>
@@ -8924,28 +8920,28 @@
       <c r="A20" s="62"/>
       <c r="B20" s="63"/>
       <c r="C20" s="63"/>
-      <c r="D20" s="170" t="s">
+      <c r="D20" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="156"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="142">
+      <c r="E20" s="180"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="182">
         <v>666</v>
       </c>
-      <c r="H20" s="171"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="156" t="s">
+      <c r="H20" s="183"/>
+      <c r="I20" s="184"/>
+      <c r="J20" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="156"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="139"/>
-      <c r="O20" s="172" t="s">
+      <c r="K20" s="180"/>
+      <c r="L20" s="180"/>
+      <c r="M20" s="180"/>
+      <c r="N20" s="181"/>
+      <c r="O20" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="P20" s="140"/>
-      <c r="Q20" s="141"/>
+      <c r="P20" s="187"/>
+      <c r="Q20" s="188"/>
       <c r="R20" s="77" t="s">
         <v>64</v>
       </c>
@@ -8963,35 +8959,35 @@
       <c r="AE20" s="68"/>
       <c r="AG20" s="76"/>
       <c r="AI20" s="50" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="12.75" customHeight="1">
       <c r="A21" s="62"/>
       <c r="B21" s="63"/>
       <c r="C21" s="63"/>
-      <c r="D21" s="170" t="s">
+      <c r="D21" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="156"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="142">
+      <c r="E21" s="180"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="182">
         <v>666</v>
       </c>
-      <c r="H21" s="171"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="156" t="s">
+      <c r="H21" s="183"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="156"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="139"/>
-      <c r="O21" s="172" t="s">
+      <c r="K21" s="180"/>
+      <c r="L21" s="180"/>
+      <c r="M21" s="180"/>
+      <c r="N21" s="181"/>
+      <c r="O21" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="P21" s="140"/>
-      <c r="Q21" s="141"/>
+      <c r="P21" s="187"/>
+      <c r="Q21" s="188"/>
       <c r="R21" s="77" t="s">
         <v>64</v>
       </c>
@@ -9008,36 +9004,33 @@
       <c r="AD21" s="58"/>
       <c r="AE21" s="68"/>
       <c r="AG21" s="76"/>
-      <c r="AI21" s="50" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="22" spans="1:35" ht="12.75" customHeight="1">
       <c r="A22" s="62"/>
       <c r="B22" s="63"/>
       <c r="C22" s="63"/>
-      <c r="D22" s="170" t="s">
+      <c r="D22" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="156"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="142">
+      <c r="E22" s="180"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="182">
         <v>666</v>
       </c>
-      <c r="H22" s="171"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="156" t="s">
+      <c r="H22" s="183"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="139"/>
-      <c r="O22" s="172" t="s">
+      <c r="K22" s="180"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="P22" s="140"/>
-      <c r="Q22" s="141"/>
+      <c r="P22" s="187"/>
+      <c r="Q22" s="188"/>
       <c r="R22" s="77" t="s">
         <v>64</v>
       </c>
@@ -9059,28 +9052,28 @@
       <c r="A23" s="62"/>
       <c r="B23" s="63"/>
       <c r="C23" s="63"/>
-      <c r="D23" s="170" t="s">
+      <c r="D23" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="156"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="142">
+      <c r="E23" s="180"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="182">
         <v>666</v>
       </c>
-      <c r="H23" s="171"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="156" t="s">
+      <c r="H23" s="183"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="156"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="139"/>
-      <c r="O23" s="172" t="s">
+      <c r="K23" s="180"/>
+      <c r="L23" s="180"/>
+      <c r="M23" s="180"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="P23" s="140"/>
-      <c r="Q23" s="141"/>
+      <c r="P23" s="187"/>
+      <c r="Q23" s="188"/>
       <c r="R23" s="77" t="s">
         <v>64</v>
       </c>
@@ -9097,33 +9090,36 @@
       <c r="AD23" s="58"/>
       <c r="AE23" s="68"/>
       <c r="AG23" s="76"/>
+      <c r="AI23" s="50" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="24" spans="1:35" ht="12.75" customHeight="1">
       <c r="A24" s="62"/>
       <c r="B24" s="63"/>
       <c r="C24" s="63"/>
-      <c r="D24" s="170" t="s">
+      <c r="D24" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="156"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="142">
+      <c r="E24" s="180"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="182">
         <v>666</v>
       </c>
-      <c r="H24" s="171"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="156" t="s">
+      <c r="H24" s="183"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="139"/>
-      <c r="O24" s="172" t="s">
+      <c r="K24" s="180"/>
+      <c r="L24" s="180"/>
+      <c r="M24" s="180"/>
+      <c r="N24" s="181"/>
+      <c r="O24" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="P24" s="140"/>
-      <c r="Q24" s="141"/>
+      <c r="P24" s="187"/>
+      <c r="Q24" s="188"/>
       <c r="R24" s="77" t="s">
         <v>64</v>
       </c>
@@ -9141,35 +9137,35 @@
       <c r="AE24" s="68"/>
       <c r="AG24" s="76"/>
       <c r="AI24" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="12.75" customHeight="1">
       <c r="A25" s="62"/>
       <c r="B25" s="63"/>
       <c r="C25" s="63"/>
-      <c r="D25" s="170" t="s">
+      <c r="D25" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="156"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="142">
+      <c r="E25" s="180"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="182">
         <v>666</v>
       </c>
-      <c r="H25" s="171"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="156" t="s">
+      <c r="H25" s="183"/>
+      <c r="I25" s="184"/>
+      <c r="J25" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="139"/>
-      <c r="O25" s="172" t="s">
+      <c r="K25" s="180"/>
+      <c r="L25" s="180"/>
+      <c r="M25" s="180"/>
+      <c r="N25" s="181"/>
+      <c r="O25" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="P25" s="140"/>
-      <c r="Q25" s="141"/>
+      <c r="P25" s="187"/>
+      <c r="Q25" s="188"/>
       <c r="R25" s="77" t="s">
         <v>64</v>
       </c>
@@ -9187,35 +9183,35 @@
       <c r="AE25" s="68"/>
       <c r="AG25" s="76"/>
       <c r="AI25" s="50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="12.75" customHeight="1">
       <c r="A26" s="62"/>
       <c r="B26" s="63"/>
       <c r="C26" s="63"/>
-      <c r="D26" s="170" t="s">
+      <c r="D26" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="156"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="142">
+      <c r="E26" s="180"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="182">
         <v>666</v>
       </c>
-      <c r="H26" s="171"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="156" t="s">
+      <c r="H26" s="183"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="139"/>
-      <c r="O26" s="172" t="s">
+      <c r="K26" s="180"/>
+      <c r="L26" s="180"/>
+      <c r="M26" s="180"/>
+      <c r="N26" s="181"/>
+      <c r="O26" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="P26" s="140"/>
-      <c r="Q26" s="141"/>
+      <c r="P26" s="187"/>
+      <c r="Q26" s="188"/>
       <c r="R26" s="77" t="s">
         <v>64</v>
       </c>
@@ -9232,36 +9228,33 @@
       <c r="AD26" s="58"/>
       <c r="AE26" s="68"/>
       <c r="AG26" s="76"/>
-      <c r="AI26" s="50" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="27" spans="1:35" ht="12.75" customHeight="1">
       <c r="A27" s="62"/>
       <c r="B27" s="63"/>
       <c r="C27" s="63"/>
-      <c r="D27" s="170" t="s">
+      <c r="D27" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="156"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="142">
+      <c r="E27" s="180"/>
+      <c r="F27" s="181"/>
+      <c r="G27" s="182">
         <v>666</v>
       </c>
-      <c r="H27" s="171"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="156" t="s">
+      <c r="H27" s="183"/>
+      <c r="I27" s="184"/>
+      <c r="J27" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="156"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="139"/>
-      <c r="O27" s="172" t="s">
+      <c r="K27" s="180"/>
+      <c r="L27" s="180"/>
+      <c r="M27" s="180"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="P27" s="140"/>
-      <c r="Q27" s="141"/>
+      <c r="P27" s="187"/>
+      <c r="Q27" s="188"/>
       <c r="R27" s="77" t="s">
         <v>64</v>
       </c>
@@ -9278,33 +9271,36 @@
       <c r="AD27" s="58"/>
       <c r="AE27" s="68"/>
       <c r="AG27" s="76"/>
+      <c r="AI27" s="50" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="28" spans="1:35" ht="12.75" customHeight="1">
       <c r="A28" s="62"/>
       <c r="B28" s="63"/>
       <c r="C28" s="63"/>
-      <c r="D28" s="170" t="s">
+      <c r="D28" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="156"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="142">
+      <c r="E28" s="180"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="182">
         <v>666</v>
       </c>
-      <c r="H28" s="171"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="156" t="s">
+      <c r="H28" s="183"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="139"/>
-      <c r="O28" s="172" t="s">
+      <c r="K28" s="180"/>
+      <c r="L28" s="180"/>
+      <c r="M28" s="180"/>
+      <c r="N28" s="181"/>
+      <c r="O28" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="P28" s="140"/>
-      <c r="Q28" s="141"/>
+      <c r="P28" s="187"/>
+      <c r="Q28" s="188"/>
       <c r="R28" s="77" t="s">
         <v>64</v>
       </c>
@@ -9322,35 +9318,35 @@
       <c r="AE28" s="68"/>
       <c r="AG28" s="76"/>
       <c r="AI28" s="50" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="12.75" customHeight="1">
       <c r="A29" s="62"/>
       <c r="B29" s="63"/>
       <c r="C29" s="63"/>
-      <c r="D29" s="170" t="s">
+      <c r="D29" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="156"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="142">
+      <c r="E29" s="180"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="182">
         <v>666</v>
       </c>
-      <c r="H29" s="171"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="156" t="s">
+      <c r="H29" s="183"/>
+      <c r="I29" s="184"/>
+      <c r="J29" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="156"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="139"/>
-      <c r="O29" s="172" t="s">
+      <c r="K29" s="180"/>
+      <c r="L29" s="180"/>
+      <c r="M29" s="180"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="P29" s="140"/>
-      <c r="Q29" s="141"/>
+      <c r="P29" s="187"/>
+      <c r="Q29" s="188"/>
       <c r="R29" s="77" t="s">
         <v>64</v>
       </c>
@@ -9367,36 +9363,33 @@
       <c r="AD29" s="58"/>
       <c r="AE29" s="68"/>
       <c r="AG29" s="76"/>
-      <c r="AI29" s="50" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="30" spans="1:35" ht="12.75" customHeight="1">
       <c r="A30" s="62"/>
       <c r="B30" s="63"/>
       <c r="C30" s="63"/>
-      <c r="D30" s="170" t="s">
+      <c r="D30" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="156"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="142">
+      <c r="E30" s="180"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="182">
         <v>666</v>
       </c>
-      <c r="H30" s="171"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="156" t="s">
+      <c r="H30" s="183"/>
+      <c r="I30" s="184"/>
+      <c r="J30" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="139"/>
-      <c r="O30" s="172" t="s">
+      <c r="K30" s="180"/>
+      <c r="L30" s="180"/>
+      <c r="M30" s="180"/>
+      <c r="N30" s="181"/>
+      <c r="O30" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="P30" s="140"/>
-      <c r="Q30" s="141"/>
+      <c r="P30" s="187"/>
+      <c r="Q30" s="188"/>
       <c r="R30" s="77" t="s">
         <v>64</v>
       </c>
@@ -9413,33 +9406,36 @@
       <c r="AD30" s="58"/>
       <c r="AE30" s="68"/>
       <c r="AG30" s="76"/>
+      <c r="AI30" s="50" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="31" spans="1:35" ht="12.75" customHeight="1">
       <c r="A31" s="62"/>
       <c r="B31" s="63"/>
       <c r="C31" s="63"/>
-      <c r="D31" s="170" t="s">
+      <c r="D31" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="156"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="142">
+      <c r="E31" s="180"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="182">
         <v>666</v>
       </c>
-      <c r="H31" s="171"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="156" t="s">
+      <c r="H31" s="183"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="156"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="139"/>
-      <c r="O31" s="172" t="s">
+      <c r="K31" s="180"/>
+      <c r="L31" s="180"/>
+      <c r="M31" s="180"/>
+      <c r="N31" s="181"/>
+      <c r="O31" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="P31" s="140"/>
-      <c r="Q31" s="141"/>
+      <c r="P31" s="187"/>
+      <c r="Q31" s="188"/>
       <c r="R31" s="77" t="s">
         <v>64</v>
       </c>
@@ -9457,35 +9453,35 @@
       <c r="AE31" s="68"/>
       <c r="AG31" s="76"/>
       <c r="AI31" s="50" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="12.75" customHeight="1">
       <c r="A32" s="62"/>
       <c r="B32" s="63"/>
       <c r="C32" s="63"/>
-      <c r="D32" s="170" t="s">
+      <c r="D32" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="156"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="142">
+      <c r="E32" s="180"/>
+      <c r="F32" s="181"/>
+      <c r="G32" s="182">
         <v>666</v>
       </c>
-      <c r="H32" s="171"/>
-      <c r="I32" s="143"/>
-      <c r="J32" s="156" t="s">
+      <c r="H32" s="183"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="156"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="156"/>
-      <c r="N32" s="139"/>
-      <c r="O32" s="172" t="s">
+      <c r="K32" s="180"/>
+      <c r="L32" s="180"/>
+      <c r="M32" s="180"/>
+      <c r="N32" s="181"/>
+      <c r="O32" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="P32" s="140"/>
-      <c r="Q32" s="141"/>
+      <c r="P32" s="187"/>
+      <c r="Q32" s="188"/>
       <c r="R32" s="77" t="s">
         <v>64</v>
       </c>
@@ -9502,36 +9498,33 @@
       <c r="AD32" s="58"/>
       <c r="AE32" s="68"/>
       <c r="AG32" s="76"/>
-      <c r="AI32" s="50" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="33" spans="1:35" ht="12.75" customHeight="1">
       <c r="A33" s="62"/>
       <c r="B33" s="63"/>
       <c r="C33" s="63"/>
-      <c r="D33" s="170" t="s">
+      <c r="D33" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="156"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="142">
+      <c r="E33" s="180"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="182">
         <v>666</v>
       </c>
-      <c r="H33" s="171"/>
-      <c r="I33" s="143"/>
-      <c r="J33" s="156" t="s">
+      <c r="H33" s="183"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="156"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="156"/>
-      <c r="N33" s="139"/>
-      <c r="O33" s="172" t="s">
+      <c r="K33" s="180"/>
+      <c r="L33" s="180"/>
+      <c r="M33" s="180"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="P33" s="140"/>
-      <c r="Q33" s="141"/>
+      <c r="P33" s="187"/>
+      <c r="Q33" s="188"/>
       <c r="R33" s="77" t="s">
         <v>64</v>
       </c>
@@ -9553,28 +9546,28 @@
       <c r="A34" s="62"/>
       <c r="B34" s="63"/>
       <c r="C34" s="63"/>
-      <c r="D34" s="170" t="s">
+      <c r="D34" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="156"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="142">
+      <c r="E34" s="180"/>
+      <c r="F34" s="181"/>
+      <c r="G34" s="182">
         <v>666</v>
       </c>
-      <c r="H34" s="171"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="156" t="s">
+      <c r="H34" s="183"/>
+      <c r="I34" s="184"/>
+      <c r="J34" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="156"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="156"/>
-      <c r="N34" s="139"/>
-      <c r="O34" s="172" t="s">
+      <c r="K34" s="180"/>
+      <c r="L34" s="180"/>
+      <c r="M34" s="180"/>
+      <c r="N34" s="181"/>
+      <c r="O34" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="P34" s="140"/>
-      <c r="Q34" s="141"/>
+      <c r="P34" s="187"/>
+      <c r="Q34" s="188"/>
       <c r="R34" s="77" t="s">
         <v>64</v>
       </c>
@@ -9596,28 +9589,28 @@
       <c r="A35" s="62"/>
       <c r="B35" s="63"/>
       <c r="C35" s="63"/>
-      <c r="D35" s="170" t="s">
+      <c r="D35" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="156"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="142">
+      <c r="E35" s="180"/>
+      <c r="F35" s="181"/>
+      <c r="G35" s="182">
         <v>666</v>
       </c>
-      <c r="H35" s="171"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="156" t="s">
+      <c r="H35" s="183"/>
+      <c r="I35" s="184"/>
+      <c r="J35" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="156"/>
-      <c r="L35" s="156"/>
-      <c r="M35" s="156"/>
-      <c r="N35" s="139"/>
-      <c r="O35" s="172" t="s">
+      <c r="K35" s="180"/>
+      <c r="L35" s="180"/>
+      <c r="M35" s="180"/>
+      <c r="N35" s="181"/>
+      <c r="O35" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="P35" s="140"/>
-      <c r="Q35" s="141"/>
+      <c r="P35" s="187"/>
+      <c r="Q35" s="188"/>
       <c r="R35" s="77" t="s">
         <v>64</v>
       </c>
@@ -9639,28 +9632,28 @@
       <c r="A36" s="62"/>
       <c r="B36" s="63"/>
       <c r="C36" s="63"/>
-      <c r="D36" s="161" t="s">
+      <c r="D36" s="190" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="162"/>
-      <c r="F36" s="163"/>
-      <c r="G36" s="164">
+      <c r="E36" s="191"/>
+      <c r="F36" s="192"/>
+      <c r="G36" s="193">
         <v>666</v>
       </c>
-      <c r="H36" s="165"/>
-      <c r="I36" s="166"/>
-      <c r="J36" s="162" t="s">
+      <c r="H36" s="194"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="162"/>
-      <c r="L36" s="162"/>
-      <c r="M36" s="162"/>
-      <c r="N36" s="163"/>
-      <c r="O36" s="167" t="s">
+      <c r="K36" s="191"/>
+      <c r="L36" s="191"/>
+      <c r="M36" s="191"/>
+      <c r="N36" s="192"/>
+      <c r="O36" s="196" t="s">
         <v>74</v>
       </c>
-      <c r="P36" s="168"/>
-      <c r="Q36" s="169"/>
+      <c r="P36" s="197"/>
+      <c r="Q36" s="198"/>
       <c r="R36" s="93" t="s">
         <v>64</v>
       </c>
@@ -9679,6 +9672,9 @@
       <c r="AD36" s="58"/>
       <c r="AE36" s="68"/>
       <c r="AG36" s="76"/>
+      <c r="AI36" s="50" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="37" spans="1:35" ht="12.75" customHeight="1" thickBot="1">
       <c r="A37" s="62"/>
@@ -9715,7 +9711,7 @@
       <c r="AF37" s="63"/>
       <c r="AG37" s="67"/>
       <c r="AI37" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="12.75" customHeight="1">
@@ -9728,17 +9724,17 @@
       <c r="X38" s="58"/>
       <c r="Y38" s="58"/>
       <c r="Z38" s="58"/>
-      <c r="AA38" s="173" t="s">
+      <c r="AA38" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="AB38" s="174"/>
+      <c r="AB38" s="161"/>
       <c r="AC38" s="58"/>
       <c r="AD38" s="58"/>
       <c r="AE38" s="58"/>
       <c r="AF38" s="58"/>
       <c r="AG38" s="67"/>
       <c r="AI38" s="50" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="12.75" customHeight="1" thickBot="1">
@@ -9751,15 +9747,15 @@
       <c r="X39" s="58"/>
       <c r="Y39" s="58"/>
       <c r="Z39" s="58"/>
-      <c r="AA39" s="175"/>
-      <c r="AB39" s="176"/>
+      <c r="AA39" s="162"/>
+      <c r="AB39" s="163"/>
       <c r="AC39" s="58"/>
       <c r="AD39" s="58"/>
       <c r="AE39" s="58"/>
       <c r="AF39" s="58"/>
       <c r="AG39" s="67"/>
       <c r="AI39" s="50" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:35" ht="12.75" customHeight="1">
@@ -9796,70 +9792,74 @@
       <c r="AE40" s="74"/>
       <c r="AF40" s="74"/>
       <c r="AG40" s="75"/>
-      <c r="AI40" s="50" t="s">
-        <v>98</v>
+    </row>
+    <row r="42" spans="1:35" ht="12.75" customHeight="1">
+      <c r="AI42" s="50" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="12.75" customHeight="1">
       <c r="AI43" s="50" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:35" ht="12.75" customHeight="1">
       <c r="AI44" s="50" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="12.75" customHeight="1">
       <c r="AI45" s="50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35" ht="12.75" customHeight="1">
-      <c r="AI46" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="R16:AA16"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="W12:X13"/>
-    <mergeCell ref="AA12:AB13"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:Q26"/>
     <mergeCell ref="AA38:AB39"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
@@ -9876,51 +9876,44 @@
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:N36"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="R16:AA16"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="W12:X13"/>
+    <mergeCell ref="AA12:AB13"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
@@ -9942,7 +9935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
